--- a/notebooks/rmi-20211120-output.xlsx
+++ b/notebooks/rmi-20211120-output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="156">
   <si>
     <t>company_name</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>sector</t>
+  </si>
+  <si>
+    <t>production</t>
   </si>
   <si>
     <t>ghg_s1s2</t>
@@ -839,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,1508 +894,1616 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>4010</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2">
+        <v>15.292476505</v>
+      </c>
+      <c r="I2">
         <v>11.61636814694213</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10189000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10870000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10102000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>33648000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1029000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>4010</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3">
+        <v>6.490906199999998</v>
+      </c>
+      <c r="I3">
         <v>4.383048126075728</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1240500000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4285299935</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5829799935</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5482800000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>69300000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>4010</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H4">
+        <v>5.314575956799998</v>
+      </c>
+      <c r="I4">
         <v>3.327286484894897</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1626392000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10920786000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>62485000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>4010</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H5">
+        <v>20.5243372115</v>
+      </c>
+      <c r="I5">
         <v>11.08166774363018</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3648000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11600000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>18504000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>16701000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>16000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>4010</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H6">
+        <v>35.41685299999996</v>
+      </c>
+      <c r="I6">
         <v>23.40945202412854</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5910000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>18378774986</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>27277774986</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>28933000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>16000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>4010</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H7">
+        <v>83.96249309650005</v>
+      </c>
+      <c r="I7">
         <v>58.13028231346648</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>15561400000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>43491855142</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>73417055142</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>75892300000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>246800000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>4010</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H8">
+        <v>0.2335089999999994</v>
+      </c>
+      <c r="I8">
         <v>0.02623376995108695</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6336000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2836000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>10826000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>34394000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>178000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>4010</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H9">
+        <v>7.614822899999996</v>
+      </c>
+      <c r="I9">
         <v>2.446110573750986</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1345622000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2948564738</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4917868738</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6082456000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>9896000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>4010</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10">
+        <v>17.02351533032852</v>
+      </c>
+      <c r="I10">
         <v>12.51296305684659</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6845000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>16352000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>28163000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>26837000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>140000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>4010</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H11">
+        <v>12.8612387470939</v>
+      </c>
+      <c r="I11">
         <v>8.448013328152561</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1639605000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>7476298000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>116292000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <v>4010</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H12">
+        <v>2.81985</v>
+      </c>
+      <c r="I12">
         <v>1.202690404951755</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>12574000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>29100000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>48092000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>58079000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>981000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>4010</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H13">
+        <v>39.19643799139996</v>
+      </c>
+      <c r="I13">
         <v>27.00027424620118</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>12669000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>23100000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>38942000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>42268000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>93000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14">
         <v>4010</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H14">
+        <v>97.78659735719998</v>
+      </c>
+      <c r="I14">
         <v>31.46017816171018</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>14401000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>62000000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>90863000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>103823000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>135000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15">
         <v>4010</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H15">
+        <v>206.167169888941</v>
+      </c>
+      <c r="I15">
         <v>83.57362011669915</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>25079000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>64230558771</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>126981558771</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>158838000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>311000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>4010</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H16">
+        <v>10.528199334</v>
+      </c>
+      <c r="I16">
         <v>3.02041342769163</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>861994000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2636107949</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>4125040949</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>3813200000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>10818000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17">
         <v>4010</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H17">
+        <v>19.42686505303461</v>
+      </c>
+      <c r="I17">
         <v>8.704698966618112</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4687071999.365263</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>24422475307.44374</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>170271638.661281</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <v>4010</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18">
+        <v>145.4066786083335</v>
+      </c>
+      <c r="I18">
         <v>46.64383208992646</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>10878673000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>20500000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>39134228000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>51723912000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>425722000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19">
         <v>4010</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19">
+        <v>48.2242056275</v>
+      </c>
+      <c r="I19">
         <v>35.8266761704885</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5147800000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>14138041261</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>22861541261</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>25975900000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>23200000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20">
         <v>4010</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20">
+        <v>0.06074384179999999</v>
+      </c>
+      <c r="I20">
         <v>0.0002212864871423</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>8526470000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>24486439602</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>38241835602</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>41123915000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>15432000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21">
         <v>4010</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H21">
+        <v>19.2361809</v>
+      </c>
+      <c r="I21">
         <v>18.60611442407547</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>11035000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>22724895037</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>41715895037</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>42301000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>627000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>4010</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22">
+        <v>12.92063789599999</v>
+      </c>
+      <c r="I22">
         <v>9.894400368156168</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6736467578.207348</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>40960299959.7615</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>283786064.4354684</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23">
         <v>1410</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23">
+        <v>4.294246499999999</v>
+      </c>
+      <c r="I23">
+        <v>3.420986861478113</v>
+      </c>
+      <c r="K23">
+        <v>5336776000</v>
+      </c>
+      <c r="L23">
+        <v>5134204876</v>
+      </c>
+      <c r="M23">
+        <v>7310852876</v>
+      </c>
+      <c r="N23">
+        <v>7683059000</v>
+      </c>
+      <c r="O23">
+        <v>66459000</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
         <v>123</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F24" t="s">
         <v>124</v>
       </c>
-      <c r="H23">
-        <v>3.420986861478113</v>
-      </c>
-      <c r="J23">
-        <v>5336776000</v>
-      </c>
-      <c r="K23">
-        <v>5134204876</v>
-      </c>
-      <c r="L23">
-        <v>7310852876</v>
-      </c>
-      <c r="M23">
-        <v>7683059000</v>
-      </c>
-      <c r="N23">
-        <v>66459000</v>
-      </c>
-      <c r="O23">
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24">
+        <v>3.890358999999996</v>
+      </c>
+      <c r="I24">
+        <v>2.363287846901838</v>
+      </c>
+      <c r="K24">
+        <v>19393506493.50649</v>
+      </c>
+      <c r="L24">
+        <v>40783780623.59698</v>
+      </c>
+      <c r="N24">
+        <v>82353246753.24675</v>
+      </c>
+      <c r="O24">
+        <v>327272727.2727273</v>
+      </c>
+      <c r="P24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24">
-        <v>2.363287846901838</v>
-      </c>
-      <c r="J24">
-        <v>19393506493.50649</v>
-      </c>
-      <c r="K24">
-        <v>40783780623.59698</v>
-      </c>
-      <c r="M24">
-        <v>82353246753.24675</v>
-      </c>
-      <c r="N24">
-        <v>327272727.2727273</v>
-      </c>
-      <c r="O24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25">
         <v>4010</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25">
+        <v>1.2829038808</v>
+      </c>
+      <c r="I25">
         <v>0.9957607168453837</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1257910000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3639448000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>6051117000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>6083486000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>5145000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26">
         <v>4010</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26">
+        <v>15.98552608</v>
+      </c>
+      <c r="I26">
         <v>10.09111576107406</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2231600000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>8519482559</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>11024300000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27">
         <v>4010</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H27">
+        <v>2.948309282</v>
+      </c>
+      <c r="I27">
         <v>2.604920783012179</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>919503000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2040017347</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2714582347</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2273595000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>21199000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28">
         <v>4010</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H28">
+        <v>9.907384608500001</v>
+      </c>
+      <c r="I28">
         <v>5.367827988890957</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1457603000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4055165998</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>6568781998</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>7298774000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3833000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29">
         <v>4010</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H29">
+        <v>33.15293172313432</v>
+      </c>
+      <c r="I29">
         <v>28.77891531834095</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>7769000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>22384264788</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>43462264788</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>45680000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>815000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30">
         <v>4010</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H30">
+        <v>27.00740443647359</v>
+      </c>
+      <c r="I30">
         <v>11.95219778189389</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3471209000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>10536165750</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>16720274750</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>18479247000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>10283000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31">
         <v>4010</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H31">
+        <v>15.80069078849999</v>
+      </c>
+      <c r="I31">
         <v>7.621927586647408</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2123000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>4823580272</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>7832580272</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>8394000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>30000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D32">
         <v>4010</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H32">
+        <v>53.45721600699997</v>
+      </c>
+      <c r="I32">
         <v>11.57175374231134</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>10076000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>29513402185</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>46089402185</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>47730000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>147000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D33">
         <v>4010</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33">
+        <v>1.263015</v>
+      </c>
+      <c r="I33">
         <v>0.4953575361887322</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>10829000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>37700000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>58377000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>65665000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>108000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34">
         <v>4010</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H34">
+        <v>139.762091613559</v>
+      </c>
+      <c r="I34">
         <v>64.0584238482127</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>22596000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>57800000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>97623000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>118700000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1975000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35">
         <v>4010</v>
       </c>
       <c r="E35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35">
+        <v>16.113103994</v>
+      </c>
+      <c r="I35">
+        <v>10.17282338310371</v>
+      </c>
+      <c r="K35">
+        <v>7523100000</v>
+      </c>
+      <c r="L35">
+        <v>26300000000</v>
+      </c>
+      <c r="M35">
+        <v>38120800000</v>
+      </c>
+      <c r="N35">
+        <v>34951800000</v>
+      </c>
+      <c r="O35">
+        <v>37500000</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
         <v>120</v>
-      </c>
-      <c r="F35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35">
-        <v>10.17282338310371</v>
-      </c>
-      <c r="J35">
-        <v>7523100000</v>
-      </c>
-      <c r="K35">
-        <v>26300000000</v>
-      </c>
-      <c r="L35">
-        <v>38120800000</v>
-      </c>
-      <c r="M35">
-        <v>34951800000</v>
-      </c>
-      <c r="N35">
-        <v>37500000</v>
-      </c>
-      <c r="O35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
       </c>
       <c r="D36">
         <v>4010</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H36">
+        <v>75.91699990534775</v>
+      </c>
+      <c r="I36">
         <v>41.46215502757689</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>11529000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>30629347167</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>50608347167</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>50448000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>248000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.5</v>
       </c>
     </row>
@@ -2420,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1">
         <v>2019</v>
@@ -2521,16 +2632,16 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2">
         <v>11.994886356</v>
@@ -2631,16 +2742,16 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3">
         <v>4.383048126</v>
@@ -2741,16 +2852,16 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2851,16 +2962,16 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2961,16 +3072,16 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6">
         <v>11.081667744</v>
@@ -3071,16 +3182,16 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>23.438028466</v>
@@ -3181,16 +3292,16 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E8">
         <v>67.605670319</v>
@@ -3202,7 +3313,7 @@
         <v>61.95792984199999</v>
       </c>
       <c r="H8">
-        <v>59.134059613</v>
+        <v>59.13405961300001</v>
       </c>
       <c r="I8">
         <v>56.310189375</v>
@@ -3220,7 +3331,7 @@
         <v>45.014708452</v>
       </c>
       <c r="N8">
-        <v>42.19083821699999</v>
+        <v>42.190838217</v>
       </c>
       <c r="O8">
         <v>39.366967985</v>
@@ -3291,16 +3402,16 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3401,16 +3512,16 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10">
         <v>0.025963092</v>
@@ -3511,16 +3622,16 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3621,16 +3732,16 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E12">
         <v>2.860959944</v>
@@ -3731,16 +3842,16 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3841,16 +3952,16 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E14">
         <v>12.51296306</v>
@@ -3951,16 +4062,16 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4061,16 +4172,16 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16">
         <v>1.202690405</v>
@@ -4171,16 +4282,16 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4281,16 +4392,16 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E18">
         <v>27.00027425</v>
@@ -4391,16 +4502,16 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E19">
         <v>31.432803556</v>
@@ -4501,16 +4612,16 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20">
         <v>83.595723119</v>
@@ -4611,16 +4722,16 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4721,16 +4832,16 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22">
         <v>8.704698967000001</v>
@@ -4831,16 +4942,16 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4941,16 +5052,16 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24">
         <v>53.98120621</v>
@@ -5051,16 +5162,16 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5161,16 +5272,16 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5271,16 +5382,16 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27">
         <v>18.60611442</v>
@@ -5381,16 +5492,16 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28">
         <v>8.78796125</v>
@@ -5491,16 +5602,16 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E29">
         <v>3.979018143</v>
@@ -5601,16 +5712,16 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5711,16 +5822,16 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <v>2.427756991</v>
@@ -5821,16 +5932,16 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>1.991521434</v>
@@ -5931,16 +6042,16 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33">
         <v>10.09111576</v>
@@ -6041,16 +6152,16 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E34">
         <v>2.604920783</v>
@@ -6151,16 +6262,16 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>5.367827989</v>
@@ -6261,16 +6372,16 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E36">
         <v>28.77891532</v>
@@ -6371,16 +6482,16 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37">
         <v>10.54957153</v>
@@ -6481,16 +6592,16 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E38">
         <v>7.621927587</v>
@@ -6591,16 +6702,16 @@
     </row>
     <row r="39" spans="1:36">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -6701,16 +6812,16 @@
     </row>
     <row r="40" spans="1:36">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E40">
         <v>0.495357536</v>
@@ -6811,16 +6922,16 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E41">
         <v>63.436548403</v>
@@ -6921,16 +7032,16 @@
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -7031,16 +7142,16 @@
     </row>
     <row r="43" spans="1:36">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -7141,16 +7252,16 @@
     </row>
     <row r="44" spans="1:36">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E44">
         <v>9.874576585</v>
@@ -7251,16 +7362,16 @@
     </row>
     <row r="45" spans="1:36">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E45">
         <v>43.15126858</v>
@@ -7383,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1">
         <v>2019</v>
@@ -7484,16 +7595,16 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2">
         <v>0.7077455691137845</v>
@@ -7594,16 +7705,16 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3">
         <v>0.5203588779999999</v>
@@ -7704,16 +7815,16 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7814,16 +7925,16 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7924,16 +8035,16 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6">
         <v>0.4403657265077406</v>
@@ -8034,16 +8145,16 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>0.64267691</v>
@@ -8144,40 +8255,40 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E8">
-        <v>0.6014097045624485</v>
+        <v>0.6014097045624481</v>
       </c>
       <c r="F8">
-        <v>0.5770822446624301</v>
+        <v>0.5770822446624299</v>
       </c>
       <c r="G8">
-        <v>0.5527547847624117</v>
+        <v>0.5527547847624116</v>
       </c>
       <c r="H8">
         <v>0.5284657563085484</v>
       </c>
       <c r="I8">
-        <v>0.5042152322039281</v>
+        <v>0.5042152322039279</v>
       </c>
       <c r="J8">
-        <v>0.4800032845469084</v>
+        <v>0.4800032845469085</v>
       </c>
       <c r="K8">
-        <v>0.4558299861001677</v>
+        <v>0.4558299861001676</v>
       </c>
       <c r="L8">
-        <v>0.4316954096569587</v>
+        <v>0.4316954096569586</v>
       </c>
       <c r="M8">
         <v>0.4075996272794524</v>
@@ -8186,7 +8297,7 @@
         <v>0.3835427110191725</v>
       </c>
       <c r="O8">
-        <v>0.3595247336148619</v>
+        <v>0.3595247336148618</v>
       </c>
       <c r="P8">
         <v>0.3355457667578734</v>
@@ -8213,13 +8324,13 @@
         <v>0.2422227147158975</v>
       </c>
       <c r="X8">
-        <v>0.2289777146550957</v>
+        <v>0.2289777146550956</v>
       </c>
       <c r="Y8">
         <v>0.2157545497809188</v>
       </c>
       <c r="Z8">
-        <v>0.2025532600012974</v>
+        <v>0.2025532600012973</v>
       </c>
       <c r="AA8">
         <v>0.1893738846800538</v>
@@ -8231,7 +8342,7 @@
         <v>0.1630810358695871</v>
       </c>
       <c r="AD8">
-        <v>0.149967641285263</v>
+        <v>0.1499676412852629</v>
       </c>
       <c r="AE8">
         <v>0.1368763186616732</v>
@@ -8243,27 +8354,27 @@
         <v>0.1107600474590824</v>
       </c>
       <c r="AH8">
-        <v>0.09773517705967075</v>
+        <v>0.09773517705967073</v>
       </c>
       <c r="AI8">
         <v>0.08473253551185553</v>
       </c>
       <c r="AJ8">
-        <v>0.07175216223412735</v>
+        <v>0.07175216223412734</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8364,16 +8475,16 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10">
         <v>0.02141957069165507</v>
@@ -8474,16 +8585,16 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8584,16 +8695,16 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E12">
         <v>0.4758590305010937</v>
@@ -8694,16 +8805,16 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8804,16 +8915,16 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E14">
         <v>0.561341045</v>
@@ -8914,16 +9025,16 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -9024,16 +9135,16 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16">
         <v>0.184867083</v>
@@ -9134,30 +9245,30 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:36">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E18">
         <v>0.6716935589999999</v>
@@ -9258,16 +9369,16 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E19">
         <v>0.3072671706007556</v>
@@ -9368,16 +9479,16 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20">
         <v>0.3838028685117988</v>
@@ -9478,16 +9589,16 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -9588,16 +9699,16 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22">
         <v>0.404023942</v>
@@ -9698,16 +9809,16 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -9808,16 +9919,16 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24">
         <v>0.7113048472546464</v>
@@ -9918,16 +10029,16 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -10028,16 +10139,16 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -10138,16 +10249,16 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27">
         <v>0.7071503386873526</v>
@@ -10248,16 +10359,16 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28">
         <v>0.5206077802825411</v>
@@ -10358,16 +10469,16 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E29">
         <v>0.49864586573088</v>
@@ -10468,16 +10579,16 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -10578,16 +10689,16 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <v>0.3545481164133421</v>
@@ -10688,16 +10799,16 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>0.2997321612126735</v>
@@ -10798,16 +10909,16 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33">
         <v>0.5654922710000001</v>
@@ -10908,16 +11019,16 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E34">
         <v>0.6042899100000001</v>
@@ -11018,16 +11129,16 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>0.4490472263533699</v>
@@ -11128,16 +11239,16 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E36">
         <v>0.8186775301020227</v>
@@ -11238,16 +11349,16 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37">
         <v>0.328743433</v>
@@ -11348,16 +11459,16 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E38">
         <v>0.452991182</v>
@@ -11458,16 +11569,16 @@
     </row>
     <row r="39" spans="1:36">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -11568,16 +11679,16 @@
     </row>
     <row r="40" spans="1:36">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E40">
         <v>0.070402124</v>
@@ -11678,16 +11789,16 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E41">
         <v>0.4359009447400328</v>
@@ -11788,16 +11899,16 @@
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -11898,30 +12009,30 @@
     </row>
     <row r="43" spans="1:36">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:36">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E44">
         <v>0.5231776022639834</v>
@@ -12022,16 +12133,16 @@
     </row>
     <row r="45" spans="1:36">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E45">
         <v>0.4625589852664037</v>
@@ -12154,7 +12265,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1">
         <v>2019</v>
@@ -12255,16 +12366,16 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2">
         <v>16.935348375</v>
@@ -12365,16 +12476,16 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>8.421214907000001</v>
@@ -12475,16 +12586,16 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>1.026422</v>
@@ -12585,16 +12696,16 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>6.367375351</v>
@@ -12695,16 +12806,16 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>25.16469173</v>
@@ -12805,16 +12916,16 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>36.41700449</v>
@@ -12915,25 +13026,25 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E8">
-        <v>99.83517601499997</v>
+        <v>99.83517601499999</v>
       </c>
       <c r="F8">
-        <v>99.91677389499998</v>
+        <v>99.91677389499999</v>
       </c>
       <c r="G8">
-        <v>99.99837177499998</v>
+        <v>99.998371775</v>
       </c>
       <c r="H8">
         <v>100.080204152</v>
@@ -13025,16 +13136,16 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>0.000385</v>
@@ -13135,16 +13246,16 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10">
         <v>1.212120114</v>
@@ -13245,16 +13356,16 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>9.613710092</v>
@@ -13355,16 +13466,16 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <v>6.009696554999998</v>
@@ -13465,16 +13576,16 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>2.786477</v>
@@ -13575,16 +13686,16 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E14">
         <v>22.28757311</v>
@@ -13685,16 +13796,16 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E15">
         <v>13.86123875</v>
@@ -13795,16 +13906,16 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E16">
         <v>6.505703404</v>
@@ -13905,16 +14016,16 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -14015,16 +14126,16 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E18">
         <v>40.19730999</v>
@@ -14125,16 +14236,16 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19">
         <v>102.17303551</v>
@@ -14235,16 +14346,16 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>217.744885163</v>
@@ -14345,16 +14456,16 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E21">
         <v>11.8010457</v>
@@ -14455,16 +14566,16 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>21.51489799</v>
@@ -14565,16 +14676,16 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23">
         <v>153.759110774</v>
@@ -14675,16 +14786,16 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>76.21933198999999</v>
@@ -14785,16 +14896,16 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>1.060753342</v>
@@ -14895,16 +15006,16 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E26">
         <v>16.139864776</v>
@@ -15005,16 +15116,16 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E27">
         <v>26.311398565</v>
@@ -15115,16 +15226,16 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E28">
         <v>16.840724204</v>
@@ -15225,16 +15336,16 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E29">
         <v>7.968699109999999</v>
@@ -15335,16 +15446,16 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E30">
         <v>6.294009052000001</v>
@@ -15445,16 +15556,16 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31">
         <v>3.8916445</v>
@@ -15555,16 +15666,16 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <v>6.64332012</v>
@@ -15665,16 +15776,16 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E33">
         <v>17.8415995</v>
@@ -15775,16 +15886,16 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E34">
         <v>4.310335350000001</v>
@@ -15885,16 +15996,16 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35">
         <v>11.950171865</v>
@@ -15995,16 +16106,16 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E36">
         <v>35.15293172</v>
@@ -16105,16 +16216,16 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>31.981286</v>
@@ -16215,16 +16326,16 @@
     </row>
     <row r="38" spans="1:36">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E38">
         <v>16.79911405</v>
@@ -16325,16 +16436,16 @@
     </row>
     <row r="39" spans="1:36">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39">
         <v>54.98742345</v>
@@ -16435,16 +16546,16 @@
     </row>
     <row r="40" spans="1:36">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E40">
         <v>7.036116309</v>
@@ -16545,16 +16656,16 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41">
         <v>145.52973376</v>
@@ -16655,16 +16766,16 @@
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42">
         <v>1.248303</v>
@@ -16765,16 +16876,16 @@
     </row>
     <row r="43" spans="1:36">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -16875,16 +16986,16 @@
     </row>
     <row r="44" spans="1:36">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44">
         <v>18.87423399</v>
@@ -16985,16 +17096,16 @@
     </row>
     <row r="45" spans="1:36">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E45">
         <v>93.200442563</v>

--- a/notebooks/rmi-20211120-output.xlsx
+++ b/notebooks/rmi-20211120-output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="157">
   <si>
     <t>company_name</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>North America</t>
+  </si>
+  <si>
+    <t>Europe</t>
   </si>
   <si>
     <t>Electricity Utilities</t>
@@ -918,7 +921,7 @@
         <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2">
         <v>15.292476505</v>
@@ -965,7 +968,7 @@
         <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H3">
         <v>6.490906199999998</v>
@@ -1012,7 +1015,7 @@
         <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4">
         <v>5.314575956799998</v>
@@ -1053,7 +1056,7 @@
         <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H5">
         <v>20.5243372115</v>
@@ -1100,7 +1103,7 @@
         <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6">
         <v>35.41685299999996</v>
@@ -1147,13 +1150,13 @@
         <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H7">
         <v>83.96249309650005</v>
       </c>
       <c r="I7">
-        <v>58.13028231346648</v>
+        <v>58.13028231346649</v>
       </c>
       <c r="K7">
         <v>15561400000</v>
@@ -1194,7 +1197,7 @@
         <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H8">
         <v>0.2335089999999994</v>
@@ -1241,7 +1244,7 @@
         <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H9">
         <v>7.614822899999996</v>
@@ -1288,7 +1291,7 @@
         <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10">
         <v>17.02351533032852</v>
@@ -1335,7 +1338,7 @@
         <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H11">
         <v>12.8612387470939</v>
@@ -1376,7 +1379,7 @@
         <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H12">
         <v>2.81985</v>
@@ -1423,7 +1426,7 @@
         <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H13">
         <v>39.19643799139996</v>
@@ -1470,7 +1473,7 @@
         <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H14">
         <v>97.78659735719998</v>
@@ -1517,7 +1520,7 @@
         <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H15">
         <v>206.167169888941</v>
@@ -1564,7 +1567,7 @@
         <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H16">
         <v>10.528199334</v>
@@ -1611,7 +1614,7 @@
         <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H17">
         <v>19.42686505303461</v>
@@ -1652,7 +1655,7 @@
         <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18">
         <v>145.4066786083335</v>
@@ -1699,7 +1702,7 @@
         <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19">
         <v>48.2242056275</v>
@@ -1746,7 +1749,7 @@
         <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20">
         <v>0.06074384179999999</v>
@@ -1793,7 +1796,7 @@
         <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H21">
         <v>19.2361809</v>
@@ -1840,7 +1843,7 @@
         <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H22">
         <v>12.92063789599999</v>
@@ -1881,7 +1884,7 @@
         <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H23">
         <v>4.294246499999999</v>
@@ -1922,10 +1925,10 @@
         <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H24">
         <v>3.890358999999996</v>
@@ -1969,7 +1972,7 @@
         <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25">
         <v>1.2829038808</v>
@@ -2016,7 +2019,7 @@
         <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H26">
         <v>15.98552608</v>
@@ -2057,7 +2060,7 @@
         <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H27">
         <v>2.948309282</v>
@@ -2104,7 +2107,7 @@
         <v>124</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H28">
         <v>9.907384608500001</v>
@@ -2151,7 +2154,7 @@
         <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H29">
         <v>33.15293172313432</v>
@@ -2198,7 +2201,7 @@
         <v>124</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H30">
         <v>27.00740443647359</v>
@@ -2245,7 +2248,7 @@
         <v>124</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H31">
         <v>15.80069078849999</v>
@@ -2292,7 +2295,7 @@
         <v>124</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H32">
         <v>53.45721600699997</v>
@@ -2339,7 +2342,7 @@
         <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33">
         <v>1.263015</v>
@@ -2386,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H34">
         <v>139.762091613559</v>
@@ -2433,7 +2436,7 @@
         <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H35">
         <v>16.113103994</v>
@@ -2480,7 +2483,7 @@
         <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H36">
         <v>75.91699990534775</v>
@@ -2531,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>2019</v>
@@ -2641,7 +2644,7 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2">
         <v>11.994886356</v>
@@ -2751,7 +2754,7 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>4.383048126</v>
@@ -2852,16 +2855,16 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2971,7 +2974,7 @@
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3081,7 +3084,7 @@
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>11.081667744</v>
@@ -3191,7 +3194,7 @@
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>23.438028466</v>
@@ -3301,7 +3304,7 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>67.605670319</v>
@@ -3402,16 +3405,16 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3521,7 +3524,7 @@
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10">
         <v>0.025963092</v>
@@ -3631,7 +3634,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3732,16 +3735,16 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <v>2.860959944</v>
@@ -3842,16 +3845,16 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3961,7 +3964,7 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E14">
         <v>12.51296306</v>
@@ -4071,7 +4074,7 @@
         <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4181,7 +4184,7 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E16">
         <v>1.202690405</v>
@@ -4282,16 +4285,16 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4401,7 +4404,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E18">
         <v>27.00027425</v>
@@ -4511,7 +4514,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19">
         <v>31.432803556</v>
@@ -4621,7 +4624,7 @@
         <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>83.595723119</v>
@@ -4731,7 +4734,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4841,7 +4844,7 @@
         <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>8.704698967000001</v>
@@ -4951,7 +4954,7 @@
         <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5061,7 +5064,7 @@
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>53.98120621</v>
@@ -5171,7 +5174,7 @@
         <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5272,16 +5275,16 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5391,7 +5394,7 @@
         <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E27">
         <v>18.60611442</v>
@@ -5501,7 +5504,7 @@
         <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E28">
         <v>8.78796125</v>
@@ -5602,16 +5605,16 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E29">
         <v>3.979018143</v>
@@ -5721,7 +5724,7 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5831,7 +5834,7 @@
         <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31">
         <v>2.427756991</v>
@@ -5941,7 +5944,7 @@
         <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <v>1.991521434</v>
@@ -6051,7 +6054,7 @@
         <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E33">
         <v>10.09111576</v>
@@ -6161,7 +6164,7 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E34">
         <v>2.604920783</v>
@@ -6271,7 +6274,7 @@
         <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35">
         <v>5.367827989</v>
@@ -6381,7 +6384,7 @@
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E36">
         <v>28.77891532</v>
@@ -6491,7 +6494,7 @@
         <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>10.54957153</v>
@@ -6601,7 +6604,7 @@
         <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E38">
         <v>7.621927587</v>
@@ -6711,7 +6714,7 @@
         <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -6821,7 +6824,7 @@
         <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E40">
         <v>0.495357536</v>
@@ -6931,7 +6934,7 @@
         <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41">
         <v>63.436548403</v>
@@ -6967,7 +6970,7 @@
         <v>64.460503281</v>
       </c>
       <c r="P41">
-        <v>64.562898778</v>
+        <v>64.56289877799999</v>
       </c>
       <c r="Q41">
         <v>61.33475384</v>
@@ -6988,13 +6991,13 @@
         <v>45.194029141</v>
       </c>
       <c r="W41">
-        <v>41.965884203</v>
+        <v>41.96588420299999</v>
       </c>
       <c r="X41">
         <v>38.737739255</v>
       </c>
       <c r="Y41">
-        <v>35.509594327</v>
+        <v>35.50959432699999</v>
       </c>
       <c r="Z41">
         <v>32.281449389</v>
@@ -7021,7 +7024,7 @@
         <v>9.684434817</v>
       </c>
       <c r="AH41">
-        <v>6.456289878</v>
+        <v>6.456289878000001</v>
       </c>
       <c r="AI41">
         <v>3.228144939</v>
@@ -7032,16 +7035,16 @@
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -7142,16 +7145,16 @@
     </row>
     <row r="43" spans="1:36">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -7261,7 +7264,7 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44">
         <v>9.874576585</v>
@@ -7371,7 +7374,7 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E45">
         <v>43.15126858</v>
@@ -7494,7 +7497,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>2019</v>
@@ -7604,7 +7607,7 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2">
         <v>0.7077455691137845</v>
@@ -7714,7 +7717,7 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>0.5203588779999999</v>
@@ -7815,16 +7818,16 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7934,7 +7937,7 @@
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8044,7 +8047,7 @@
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>0.4403657265077406</v>
@@ -8154,7 +8157,7 @@
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>0.64267691</v>
@@ -8264,7 +8267,7 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>0.6014097045624481</v>
@@ -8365,16 +8368,16 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8484,7 +8487,7 @@
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E10">
         <v>0.02141957069165507</v>
@@ -8594,7 +8597,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8695,16 +8698,16 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <v>0.4758590305010937</v>
@@ -8805,16 +8808,16 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8924,7 +8927,7 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E14">
         <v>0.561341045</v>
@@ -9034,7 +9037,7 @@
         <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -9144,7 +9147,7 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E16">
         <v>0.184867083</v>
@@ -9245,16 +9248,16 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -9268,7 +9271,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E18">
         <v>0.6716935589999999</v>
@@ -9378,7 +9381,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19">
         <v>0.3072671706007556</v>
@@ -9488,7 +9491,7 @@
         <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>0.3838028685117988</v>
@@ -9598,7 +9601,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -9708,7 +9711,7 @@
         <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>0.404023942</v>
@@ -9818,7 +9821,7 @@
         <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -9928,7 +9931,7 @@
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>0.7113048472546464</v>
@@ -10038,7 +10041,7 @@
         <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -10139,16 +10142,16 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -10258,7 +10261,7 @@
         <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E27">
         <v>0.7071503386873526</v>
@@ -10368,7 +10371,7 @@
         <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E28">
         <v>0.5206077802825411</v>
@@ -10469,16 +10472,16 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E29">
         <v>0.49864586573088</v>
@@ -10588,7 +10591,7 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -10698,7 +10701,7 @@
         <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31">
         <v>0.3545481164133421</v>
@@ -10808,7 +10811,7 @@
         <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <v>0.2997321612126735</v>
@@ -10918,7 +10921,7 @@
         <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E33">
         <v>0.5654922710000001</v>
@@ -11028,7 +11031,7 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E34">
         <v>0.6042899100000001</v>
@@ -11138,7 +11141,7 @@
         <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35">
         <v>0.4490472263533699</v>
@@ -11248,7 +11251,7 @@
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E36">
         <v>0.8186775301020227</v>
@@ -11358,7 +11361,7 @@
         <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>0.328743433</v>
@@ -11468,7 +11471,7 @@
         <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E38">
         <v>0.452991182</v>
@@ -11578,7 +11581,7 @@
         <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -11688,7 +11691,7 @@
         <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E40">
         <v>0.070402124</v>
@@ -11798,10 +11801,10 @@
         <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41">
-        <v>0.4359009447400328</v>
+        <v>0.4359009447400329</v>
       </c>
       <c r="F41">
         <v>0.4366045497776389</v>
@@ -11819,10 +11822,10 @@
         <v>0.4394189707350488</v>
       </c>
       <c r="K41">
-        <v>0.4401225761761478</v>
+        <v>0.4401225761761477</v>
       </c>
       <c r="L41">
-        <v>0.4408261816172467</v>
+        <v>0.4408261816172466</v>
       </c>
       <c r="M41">
         <v>0.4415297870583457</v>
@@ -11843,7 +11846,7 @@
         <v>0.3992765426085687</v>
       </c>
       <c r="S41">
-        <v>0.3770945119534483</v>
+        <v>0.3770945119534484</v>
       </c>
       <c r="T41">
         <v>0.354912481835495</v>
@@ -11861,13 +11864,13 @@
         <v>0.2661843614254925</v>
       </c>
       <c r="Y41">
-        <v>0.2440023313075391</v>
+        <v>0.244002331307539</v>
       </c>
       <c r="Z41">
         <v>0.2218203010559117</v>
       </c>
       <c r="AA41">
-        <v>0.1996382708042843</v>
+        <v>0.1996382708042844</v>
       </c>
       <c r="AB41">
         <v>0.1774562411491641</v>
@@ -11885,7 +11888,7 @@
         <v>0.0887281202763285</v>
       </c>
       <c r="AG41">
-        <v>0.06654609015837504</v>
+        <v>0.06654609015837502</v>
       </c>
       <c r="AH41">
         <v>0.04436406036958082</v>
@@ -11899,16 +11902,16 @@
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -12009,16 +12012,16 @@
     </row>
     <row r="43" spans="1:36">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -12032,7 +12035,7 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44">
         <v>0.5231776022639834</v>
@@ -12142,7 +12145,7 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E45">
         <v>0.4625589852664037</v>
@@ -12265,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>2019</v>
@@ -12375,7 +12378,7 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2">
         <v>16.935348375</v>
@@ -12485,7 +12488,7 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E3">
         <v>8.421214907000001</v>
@@ -12586,16 +12589,16 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E4">
         <v>1.026422</v>
@@ -12705,7 +12708,7 @@
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E5">
         <v>6.367375351</v>
@@ -12815,7 +12818,7 @@
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E6">
         <v>25.16469173</v>
@@ -12925,7 +12928,7 @@
         <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E7">
         <v>36.41700449</v>
@@ -13035,7 +13038,7 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8">
         <v>99.83517601499999</v>
@@ -13136,16 +13139,16 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E9">
         <v>0.000385</v>
@@ -13255,7 +13258,7 @@
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10">
         <v>1.212120114</v>
@@ -13365,7 +13368,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E11">
         <v>9.613710092</v>
@@ -13466,16 +13469,16 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E12">
         <v>6.009696554999998</v>
@@ -13576,16 +13579,16 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E13">
         <v>2.786477</v>
@@ -13695,7 +13698,7 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E14">
         <v>22.28757311</v>
@@ -13805,7 +13808,7 @@
         <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E15">
         <v>13.86123875</v>
@@ -13915,7 +13918,7 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E16">
         <v>6.505703404</v>
@@ -14016,16 +14019,16 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -14135,7 +14138,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E18">
         <v>40.19730999</v>
@@ -14245,7 +14248,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E19">
         <v>102.17303551</v>
@@ -14355,7 +14358,7 @@
         <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E20">
         <v>217.744885163</v>
@@ -14465,7 +14468,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E21">
         <v>11.8010457</v>
@@ -14575,7 +14578,7 @@
         <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E22">
         <v>21.51489799</v>
@@ -14685,7 +14688,7 @@
         <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23">
         <v>153.759110774</v>
@@ -14795,7 +14798,7 @@
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E24">
         <v>76.21933198999999</v>
@@ -14905,7 +14908,7 @@
         <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E25">
         <v>1.060753342</v>
@@ -15006,16 +15009,16 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E26">
         <v>16.139864776</v>
@@ -15125,7 +15128,7 @@
         <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E27">
         <v>26.311398565</v>
@@ -15235,7 +15238,7 @@
         <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E28">
         <v>16.840724204</v>
@@ -15336,16 +15339,16 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E29">
         <v>7.968699109999999</v>
@@ -15455,7 +15458,7 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E30">
         <v>6.294009052000001</v>
@@ -15565,7 +15568,7 @@
         <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E31">
         <v>3.8916445</v>
@@ -15675,7 +15678,7 @@
         <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32">
         <v>6.64332012</v>
@@ -15785,7 +15788,7 @@
         <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E33">
         <v>17.8415995</v>
@@ -15895,7 +15898,7 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E34">
         <v>4.310335350000001</v>
@@ -16005,7 +16008,7 @@
         <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E35">
         <v>11.950171865</v>
@@ -16115,7 +16118,7 @@
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E36">
         <v>35.15293172</v>
@@ -16225,7 +16228,7 @@
         <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E37">
         <v>31.981286</v>
@@ -16335,7 +16338,7 @@
         <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38">
         <v>16.79911405</v>
@@ -16445,7 +16448,7 @@
         <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E39">
         <v>54.98742345</v>
@@ -16555,7 +16558,7 @@
         <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E40">
         <v>7.036116309</v>
@@ -16665,7 +16668,7 @@
         <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E41">
         <v>145.52973376</v>
@@ -16766,16 +16769,16 @@
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E42">
         <v>1.248303</v>
@@ -16876,16 +16879,16 @@
     </row>
     <row r="43" spans="1:36">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -16995,7 +16998,7 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E44">
         <v>18.87423399</v>
@@ -17105,7 +17108,7 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E45">
         <v>93.200442563</v>
